--- a/testing/testSuite/src/main/resources/TestGLINTExtract/testDayOnDayProcessing/ExpectedResults.xlsx
+++ b/testing/testSuite/src/main/resources/TestGLINTExtract/testDayOnDayProcessing/ExpectedResults.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB22BD4-0095-41F3-BF6F-ABFFBF2CD150}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13215" tabRatio="778" activeTab="6"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="778" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="er_broken_feed" sheetId="7" r:id="rId1"/>
@@ -16,17 +17,25 @@
     <sheet name="er_rr_glint_batch_control" sheetId="16" r:id="rId7"/>
     <sheet name="er_rr_interface_control" sheetId="17" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1593" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1582" uniqueCount="217">
   <si>
     <t>N</t>
   </si>
@@ -535,9 +544,6 @@
     <t>00000029</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>VARCHAR2(10 CHAR)</t>
   </si>
   <si>
@@ -559,133 +565,133 @@
     <t>VARCHAR2(6 CHAR)</t>
   </si>
   <si>
+    <t>UPR_CHANGE</t>
+  </si>
+  <si>
+    <t>AGX_AAH</t>
+  </si>
+  <si>
+    <t>Chartfield</t>
+  </si>
+  <si>
+    <t>ACCT_CD</t>
+  </si>
+  <si>
+    <t>CCY</t>
+  </si>
+  <si>
+    <t>EPG_ID</t>
+  </si>
+  <si>
+    <t>FAK_SEGMENT_1</t>
+  </si>
+  <si>
+    <t>FAK_SEGMENT_2</t>
+  </si>
+  <si>
+    <t>FAK_SEGMENT_3</t>
+  </si>
+  <si>
+    <t>FAK_SEGMENT_4</t>
+  </si>
+  <si>
+    <t>FAK_SEGMENT_5</t>
+  </si>
+  <si>
+    <t>FAK_SEGMENT_6</t>
+  </si>
+  <si>
+    <t>FAK_SEGMENT_7</t>
+  </si>
+  <si>
+    <t>FAK_SEGMENT_8</t>
+  </si>
+  <si>
+    <t>FAK_SEGMENT_9</t>
+  </si>
+  <si>
+    <t>FAK_SEGMENT_10</t>
+  </si>
+  <si>
+    <t>EBA_ATTRIBUTE_1</t>
+  </si>
+  <si>
+    <t>EBA_ATTRIBUTE_2</t>
+  </si>
+  <si>
+    <t>EBA_ATTRIBUTE_3</t>
+  </si>
+  <si>
+    <t>EBA_ATTRIBUTE_4</t>
+  </si>
+  <si>
+    <t>EBA_ATTRIBUTE_5</t>
+  </si>
+  <si>
+    <t>VARCHAR2 (18 Byte)</t>
+  </si>
+  <si>
+    <t>AG</t>
+  </si>
+  <si>
+    <t>1001</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>1002</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>1003</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>EVENT_CLASS</t>
+  </si>
+  <si>
+    <t>MANUAL_JE</t>
+  </si>
+  <si>
+    <t>PS_FILTER</t>
+  </si>
+  <si>
+    <t>CHAR(1)</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>PREM_COMM</t>
+  </si>
+  <si>
+    <t>5DCF4909E6B003D0E053D3830A0ACC94</t>
+  </si>
+  <si>
+    <t>5DCF4909E6B203D0E053D3830A0ACC95</t>
+  </si>
+  <si>
+    <t>LM_PAID</t>
+  </si>
+  <si>
+    <t>POLICY_DIRTY</t>
+  </si>
+  <si>
     <t>NUMBER(10,0)</t>
-  </si>
-  <si>
-    <t>UPR_CHANGE</t>
-  </si>
-  <si>
-    <t>AGX_AAH</t>
-  </si>
-  <si>
-    <t>Chartfield</t>
-  </si>
-  <si>
-    <t>ACCT_CD</t>
-  </si>
-  <si>
-    <t>CCY</t>
-  </si>
-  <si>
-    <t>EPG_ID</t>
-  </si>
-  <si>
-    <t>FAK_SEGMENT_1</t>
-  </si>
-  <si>
-    <t>FAK_SEGMENT_2</t>
-  </si>
-  <si>
-    <t>FAK_SEGMENT_3</t>
-  </si>
-  <si>
-    <t>FAK_SEGMENT_4</t>
-  </si>
-  <si>
-    <t>FAK_SEGMENT_5</t>
-  </si>
-  <si>
-    <t>FAK_SEGMENT_6</t>
-  </si>
-  <si>
-    <t>FAK_SEGMENT_7</t>
-  </si>
-  <si>
-    <t>FAK_SEGMENT_8</t>
-  </si>
-  <si>
-    <t>FAK_SEGMENT_9</t>
-  </si>
-  <si>
-    <t>FAK_SEGMENT_10</t>
-  </si>
-  <si>
-    <t>EBA_ATTRIBUTE_1</t>
-  </si>
-  <si>
-    <t>EBA_ATTRIBUTE_2</t>
-  </si>
-  <si>
-    <t>EBA_ATTRIBUTE_3</t>
-  </si>
-  <si>
-    <t>EBA_ATTRIBUTE_4</t>
-  </si>
-  <si>
-    <t>EBA_ATTRIBUTE_5</t>
-  </si>
-  <si>
-    <t>VARCHAR2 (18 Byte)</t>
-  </si>
-  <si>
-    <t>AG</t>
-  </si>
-  <si>
-    <t>1001</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>1002</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>1003</t>
-  </si>
-  <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>EVENT_CLASS</t>
-  </si>
-  <si>
-    <t>MANUAL_JE</t>
-  </si>
-  <si>
-    <t>PS_FILTER</t>
-  </si>
-  <si>
-    <t>CHAR(1)</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>PREM_COMM</t>
-  </si>
-  <si>
-    <t>5DCF4909E6B003D0E053D3830A0ACC94</t>
-  </si>
-  <si>
-    <t>5DCF4909E6B203D0E053D3830A0ACC95</t>
-  </si>
-  <si>
-    <t>LM_PAID</t>
-  </si>
-  <si>
-    <t>POLICY_DIRTY</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy\ hh:mm:ss"/>
   </numFmts>
@@ -753,7 +759,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -790,6 +796,15 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -1104,7 +1119,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1138,7 +1153,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1182,7 +1197,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1269,7 +1284,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>5</v>
@@ -1286,7 +1301,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>5</v>
@@ -1511,7 +1526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:BI21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1530,61 +1545,61 @@
   <sheetData>
     <row r="1" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>71</v>
       </c>
       <c r="D1" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="G1" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="H1" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="I1" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="J1" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="K1" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="L1" s="17" t="s">
         <v>189</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="M1" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="N1" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="O1" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="P1" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="O1" s="17" t="s">
+      <c r="Q1" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="P1" s="17" t="s">
+      <c r="R1" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="Q1" s="17" t="s">
+      <c r="S1" s="17" t="s">
         <v>196</v>
-      </c>
-      <c r="R1" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="S1" s="17" t="s">
-        <v>198</v>
       </c>
       <c r="T1" s="17" t="s">
         <v>72</v>
@@ -1724,7 +1739,7 @@
         <v>114</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>116</v>
@@ -2094,7 +2109,7 @@
         <v>64</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E4" s="18" t="s">
         <v>24</v>
@@ -2109,7 +2124,7 @@
         <v>65</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J4" s="18" t="s">
         <v>15</v>
@@ -2127,7 +2142,7 @@
         <v>68</v>
       </c>
       <c r="O4" s="18" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="P4" s="18" t="s">
         <v>49</v>
@@ -2136,7 +2151,7 @@
         <v>123</v>
       </c>
       <c r="R4" s="18" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="S4" s="18" t="s">
         <v>68</v>
@@ -2169,7 +2184,7 @@
         <v>65</v>
       </c>
       <c r="AC4" s="18" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="AD4" s="18" t="s">
         <v>15</v>
@@ -2187,7 +2202,7 @@
         <v>68</v>
       </c>
       <c r="AI4" s="18" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AJ4" s="18" t="s">
         <v>49</v>
@@ -2196,7 +2211,7 @@
         <v>123</v>
       </c>
       <c r="AL4" s="18" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AM4" s="18" t="s">
         <v>68</v>
@@ -2208,16 +2223,16 @@
         <v>69</v>
       </c>
       <c r="AP4" s="18" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="AQ4" s="18" t="s">
         <v>69</v>
       </c>
       <c r="AR4" s="18" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AS4" s="18" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="AT4" s="18" t="s">
         <v>66</v>
@@ -2273,7 +2288,7 @@
         <v>64</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>24</v>
@@ -2288,7 +2303,7 @@
         <v>65</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J5" s="18" t="s">
         <v>16</v>
@@ -2306,7 +2321,7 @@
         <v>68</v>
       </c>
       <c r="O5" s="18" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="P5" s="18" t="s">
         <v>52</v>
@@ -2315,7 +2330,7 @@
         <v>123</v>
       </c>
       <c r="R5" s="18" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="S5" s="18" t="s">
         <v>68</v>
@@ -2348,7 +2363,7 @@
         <v>65</v>
       </c>
       <c r="AC5" s="18" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="AD5" s="18" t="s">
         <v>16</v>
@@ -2366,7 +2381,7 @@
         <v>68</v>
       </c>
       <c r="AI5" s="18" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AJ5" s="18" t="s">
         <v>52</v>
@@ -2375,7 +2390,7 @@
         <v>123</v>
       </c>
       <c r="AL5" s="18" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AM5" s="18" t="s">
         <v>68</v>
@@ -2387,16 +2402,16 @@
         <v>65</v>
       </c>
       <c r="AP5" s="18" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AQ5" s="18" t="s">
         <v>65</v>
       </c>
       <c r="AR5" s="18" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AS5" s="18" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AT5" s="18" t="s">
         <v>66</v>
@@ -2452,7 +2467,7 @@
         <v>66</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>59</v>
@@ -2485,7 +2500,7 @@
         <v>68</v>
       </c>
       <c r="O6" s="18" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="P6" s="18" t="s">
         <v>55</v>
@@ -2494,7 +2509,7 @@
         <v>123</v>
       </c>
       <c r="R6" s="18" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="S6" s="18" t="s">
         <v>68</v>
@@ -2545,7 +2560,7 @@
         <v>68</v>
       </c>
       <c r="AI6" s="18" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AJ6" s="18" t="s">
         <v>55</v>
@@ -2554,7 +2569,7 @@
         <v>123</v>
       </c>
       <c r="AL6" s="18" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AM6" s="18" t="s">
         <v>68</v>
@@ -2566,16 +2581,16 @@
         <v>67</v>
       </c>
       <c r="AP6" s="18" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AQ6" s="18" t="s">
         <v>67</v>
       </c>
       <c r="AR6" s="18" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AS6" s="18" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AT6" s="18" t="s">
         <v>67</v>
@@ -2631,7 +2646,7 @@
         <v>66</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>60</v>
@@ -2664,7 +2679,7 @@
         <v>68</v>
       </c>
       <c r="O7" s="18" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="P7" s="18" t="s">
         <v>55</v>
@@ -2673,7 +2688,7 @@
         <v>123</v>
       </c>
       <c r="R7" s="18" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="S7" s="18" t="s">
         <v>68</v>
@@ -2724,7 +2739,7 @@
         <v>68</v>
       </c>
       <c r="AI7" s="18" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AJ7" s="18" t="s">
         <v>55</v>
@@ -2733,7 +2748,7 @@
         <v>123</v>
       </c>
       <c r="AL7" s="18" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AM7" s="18" t="s">
         <v>68</v>
@@ -2745,16 +2760,16 @@
         <v>67</v>
       </c>
       <c r="AP7" s="18" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AQ7" s="18" t="s">
         <v>67</v>
       </c>
       <c r="AR7" s="18" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AS7" s="18" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AT7" s="18" t="s">
         <v>67</v>
@@ -2810,7 +2825,7 @@
         <v>66</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>60</v>
@@ -2843,7 +2858,7 @@
         <v>68</v>
       </c>
       <c r="O8" s="18" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="P8" s="18" t="s">
         <v>55</v>
@@ -2852,7 +2867,7 @@
         <v>123</v>
       </c>
       <c r="R8" s="18" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="S8" s="18" t="s">
         <v>68</v>
@@ -2903,7 +2918,7 @@
         <v>68</v>
       </c>
       <c r="AI8" s="18" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AJ8" s="18" t="s">
         <v>55</v>
@@ -2912,7 +2927,7 @@
         <v>123</v>
       </c>
       <c r="AL8" s="18" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AM8" s="18" t="s">
         <v>68</v>
@@ -2924,16 +2939,16 @@
         <v>67</v>
       </c>
       <c r="AP8" s="18" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AQ8" s="18" t="s">
         <v>67</v>
       </c>
       <c r="AR8" s="18" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AS8" s="18" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AT8" s="18" t="s">
         <v>67</v>
@@ -2989,7 +3004,7 @@
         <v>66</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E9" s="18" t="s">
         <v>60</v>
@@ -3004,7 +3019,7 @@
         <v>65</v>
       </c>
       <c r="I9" s="18" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J9" s="18" t="s">
         <v>17</v>
@@ -3022,7 +3037,7 @@
         <v>68</v>
       </c>
       <c r="O9" s="18" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="P9" s="18" t="s">
         <v>55</v>
@@ -3031,7 +3046,7 @@
         <v>68</v>
       </c>
       <c r="R9" s="18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="S9" s="18" t="s">
         <v>68</v>
@@ -3064,7 +3079,7 @@
         <v>65</v>
       </c>
       <c r="AC9" s="18" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="AD9" s="18" t="s">
         <v>17</v>
@@ -3082,7 +3097,7 @@
         <v>68</v>
       </c>
       <c r="AI9" s="18" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AJ9" s="18" t="s">
         <v>55</v>
@@ -3091,7 +3106,7 @@
         <v>68</v>
       </c>
       <c r="AL9" s="18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="AM9" s="18" t="s">
         <v>68</v>
@@ -3103,16 +3118,16 @@
         <v>67</v>
       </c>
       <c r="AP9" s="18" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AQ9" s="18" t="s">
         <v>67</v>
       </c>
       <c r="AR9" s="18" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AS9" s="18" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AT9" s="18" t="s">
         <v>67</v>
@@ -3168,7 +3183,7 @@
         <v>66</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E10" s="18" t="s">
         <v>60</v>
@@ -3183,7 +3198,7 @@
         <v>65</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J10" s="18" t="s">
         <v>17</v>
@@ -3201,7 +3216,7 @@
         <v>68</v>
       </c>
       <c r="O10" s="18" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="P10" s="18" t="s">
         <v>55</v>
@@ -3210,7 +3225,7 @@
         <v>68</v>
       </c>
       <c r="R10" s="18" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="S10" s="18" t="s">
         <v>68</v>
@@ -3243,7 +3258,7 @@
         <v>65</v>
       </c>
       <c r="AC10" s="18" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="AD10" s="18" t="s">
         <v>17</v>
@@ -3261,7 +3276,7 @@
         <v>68</v>
       </c>
       <c r="AI10" s="18" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AJ10" s="18" t="s">
         <v>55</v>
@@ -3270,7 +3285,7 @@
         <v>68</v>
       </c>
       <c r="AL10" s="18" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AM10" s="18" t="s">
         <v>68</v>
@@ -3282,16 +3297,16 @@
         <v>67</v>
       </c>
       <c r="AP10" s="18" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AQ10" s="18" t="s">
         <v>67</v>
       </c>
       <c r="AR10" s="18" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AS10" s="18" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AT10" s="18" t="s">
         <v>67</v>
@@ -3347,7 +3362,7 @@
         <v>66</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E11" s="18" t="s">
         <v>60</v>
@@ -3362,7 +3377,7 @@
         <v>65</v>
       </c>
       <c r="I11" s="18" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J11" s="18" t="s">
         <v>17</v>
@@ -3380,7 +3395,7 @@
         <v>68</v>
       </c>
       <c r="O11" s="18" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="P11" s="18" t="s">
         <v>55</v>
@@ -3389,7 +3404,7 @@
         <v>68</v>
       </c>
       <c r="R11" s="18" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="S11" s="18" t="s">
         <v>68</v>
@@ -3422,7 +3437,7 @@
         <v>65</v>
       </c>
       <c r="AC11" s="18" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="AD11" s="18" t="s">
         <v>17</v>
@@ -3440,7 +3455,7 @@
         <v>68</v>
       </c>
       <c r="AI11" s="18" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AJ11" s="18" t="s">
         <v>55</v>
@@ -3449,7 +3464,7 @@
         <v>68</v>
       </c>
       <c r="AL11" s="18" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AM11" s="18" t="s">
         <v>68</v>
@@ -3461,16 +3476,16 @@
         <v>67</v>
       </c>
       <c r="AP11" s="18" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AQ11" s="18" t="s">
         <v>67</v>
       </c>
       <c r="AR11" s="18" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AS11" s="18" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AT11" s="18" t="s">
         <v>67</v>
@@ -3526,7 +3541,7 @@
         <v>66</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E12" s="18" t="s">
         <v>60</v>
@@ -3541,7 +3556,7 @@
         <v>65</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J12" s="18" t="s">
         <v>17</v>
@@ -3559,7 +3574,7 @@
         <v>68</v>
       </c>
       <c r="O12" s="18" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="P12" s="18" t="s">
         <v>55</v>
@@ -3568,7 +3583,7 @@
         <v>68</v>
       </c>
       <c r="R12" s="18" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="S12" s="18" t="s">
         <v>68</v>
@@ -3601,7 +3616,7 @@
         <v>65</v>
       </c>
       <c r="AC12" s="18" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="AD12" s="18" t="s">
         <v>17</v>
@@ -3619,7 +3634,7 @@
         <v>68</v>
       </c>
       <c r="AI12" s="18" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AJ12" s="18" t="s">
         <v>55</v>
@@ -3628,7 +3643,7 @@
         <v>68</v>
       </c>
       <c r="AL12" s="18" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AM12" s="18" t="s">
         <v>68</v>
@@ -3640,16 +3655,16 @@
         <v>67</v>
       </c>
       <c r="AP12" s="18" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AQ12" s="18" t="s">
         <v>67</v>
       </c>
       <c r="AR12" s="18" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AS12" s="18" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AT12" s="18" t="s">
         <v>67</v>
@@ -3705,7 +3720,7 @@
         <v>66</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E13" s="18" t="s">
         <v>60</v>
@@ -3720,7 +3735,7 @@
         <v>65</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J13" s="18" t="s">
         <v>17</v>
@@ -3738,7 +3753,7 @@
         <v>68</v>
       </c>
       <c r="O13" s="18" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="P13" s="18" t="s">
         <v>55</v>
@@ -3747,7 +3762,7 @@
         <v>68</v>
       </c>
       <c r="R13" s="18" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="S13" s="18" t="s">
         <v>68</v>
@@ -3780,7 +3795,7 @@
         <v>65</v>
       </c>
       <c r="AC13" s="18" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="AD13" s="18" t="s">
         <v>17</v>
@@ -3798,7 +3813,7 @@
         <v>68</v>
       </c>
       <c r="AI13" s="18" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AJ13" s="18" t="s">
         <v>55</v>
@@ -3807,7 +3822,7 @@
         <v>68</v>
       </c>
       <c r="AL13" s="18" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AM13" s="18" t="s">
         <v>68</v>
@@ -3819,16 +3834,16 @@
         <v>67</v>
       </c>
       <c r="AP13" s="18" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AQ13" s="18" t="s">
         <v>67</v>
       </c>
       <c r="AR13" s="18" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AS13" s="18" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AT13" s="18" t="s">
         <v>67</v>
@@ -3884,7 +3899,7 @@
         <v>64</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E14" s="19" t="s">
         <v>24</v>
@@ -3899,7 +3914,7 @@
         <v>65</v>
       </c>
       <c r="I14" s="19" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J14" s="19" t="s">
         <v>17</v>
@@ -3917,7 +3932,7 @@
         <v>68</v>
       </c>
       <c r="O14" s="19" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="P14" s="19" t="s">
         <v>55</v>
@@ -3926,7 +3941,7 @@
         <v>123</v>
       </c>
       <c r="R14" s="19" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="S14" s="19" t="s">
         <v>68</v>
@@ -3959,7 +3974,7 @@
         <v>65</v>
       </c>
       <c r="AC14" s="19" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="AD14" s="19" t="s">
         <v>17</v>
@@ -3977,7 +3992,7 @@
         <v>68</v>
       </c>
       <c r="AI14" s="19" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AJ14" s="19" t="s">
         <v>55</v>
@@ -3986,7 +4001,7 @@
         <v>123</v>
       </c>
       <c r="AL14" s="19" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AM14" s="19" t="s">
         <v>68</v>
@@ -3998,16 +4013,16 @@
         <v>67</v>
       </c>
       <c r="AP14" s="19" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AQ14" s="19" t="s">
         <v>67</v>
       </c>
       <c r="AR14" s="19" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AS14" s="19" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AT14" s="19" t="s">
         <v>66</v>
@@ -4060,7 +4075,7 @@
         <v>64</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E15" s="19" t="s">
         <v>60</v>
@@ -4075,7 +4090,7 @@
         <v>65</v>
       </c>
       <c r="I15" s="19" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J15" s="19" t="s">
         <v>17</v>
@@ -4093,7 +4108,7 @@
         <v>68</v>
       </c>
       <c r="O15" s="19" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="P15" s="19" t="s">
         <v>55</v>
@@ -4102,7 +4117,7 @@
         <v>68</v>
       </c>
       <c r="R15" s="18" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="S15" s="19" t="s">
         <v>68</v>
@@ -4135,7 +4150,7 @@
         <v>65</v>
       </c>
       <c r="AC15" s="19" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="AD15" s="19" t="s">
         <v>17</v>
@@ -4153,7 +4168,7 @@
         <v>68</v>
       </c>
       <c r="AI15" s="19" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AJ15" s="19" t="s">
         <v>55</v>
@@ -4162,7 +4177,7 @@
         <v>68</v>
       </c>
       <c r="AL15" s="18" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AM15" s="19" t="s">
         <v>68</v>
@@ -4174,13 +4189,13 @@
         <v>67</v>
       </c>
       <c r="AP15" s="19" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AQ15" s="19" t="s">
         <v>67</v>
       </c>
       <c r="AR15" s="19" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AS15" s="19" t="s">
         <v>68</v>
@@ -4236,7 +4251,7 @@
         <v>64</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E16" s="19" t="s">
         <v>56</v>
@@ -4251,7 +4266,7 @@
         <v>68</v>
       </c>
       <c r="I16" s="19" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J16" s="19" t="s">
         <v>17</v>
@@ -4269,7 +4284,7 @@
         <v>68</v>
       </c>
       <c r="O16" s="19" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="P16" s="19" t="s">
         <v>55</v>
@@ -4278,7 +4293,7 @@
         <v>123</v>
       </c>
       <c r="R16" s="19" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="S16" s="19" t="s">
         <v>68</v>
@@ -4311,7 +4326,7 @@
         <v>68</v>
       </c>
       <c r="AC16" s="19" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="AD16" s="19" t="s">
         <v>17</v>
@@ -4329,7 +4344,7 @@
         <v>68</v>
       </c>
       <c r="AI16" s="19" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AJ16" s="19" t="s">
         <v>55</v>
@@ -4338,7 +4353,7 @@
         <v>123</v>
       </c>
       <c r="AL16" s="19" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AM16" s="19" t="s">
         <v>68</v>
@@ -4350,16 +4365,16 @@
         <v>67</v>
       </c>
       <c r="AP16" s="19" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AQ16" s="19" t="s">
         <v>67</v>
       </c>
       <c r="AR16" s="19" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AS16" s="19" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AT16" s="19" t="s">
         <v>66</v>
@@ -4412,7 +4427,7 @@
         <v>64</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E17" s="19" t="s">
         <v>57</v>
@@ -4427,7 +4442,7 @@
         <v>65</v>
       </c>
       <c r="I17" s="19" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J17" s="19" t="s">
         <v>17</v>
@@ -4445,7 +4460,7 @@
         <v>68</v>
       </c>
       <c r="O17" s="19" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="P17" s="19" t="s">
         <v>55</v>
@@ -4454,7 +4469,7 @@
         <v>123</v>
       </c>
       <c r="R17" s="18" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="S17" s="19" t="s">
         <v>68</v>
@@ -4487,7 +4502,7 @@
         <v>65</v>
       </c>
       <c r="AC17" s="19" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="AD17" s="19" t="s">
         <v>17</v>
@@ -4505,7 +4520,7 @@
         <v>68</v>
       </c>
       <c r="AI17" s="19" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AJ17" s="19" t="s">
         <v>55</v>
@@ -4514,7 +4529,7 @@
         <v>123</v>
       </c>
       <c r="AL17" s="18" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AM17" s="19" t="s">
         <v>68</v>
@@ -4526,16 +4541,16 @@
         <v>67</v>
       </c>
       <c r="AP17" s="19" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AQ17" s="19" t="s">
         <v>67</v>
       </c>
       <c r="AR17" s="19" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AS17" s="19" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AT17" s="19" t="s">
         <v>68</v>
@@ -4588,7 +4603,7 @@
         <v>64</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E18" s="19" t="s">
         <v>59</v>
@@ -4621,7 +4636,7 @@
         <v>68</v>
       </c>
       <c r="O18" s="19" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="P18" s="19" t="s">
         <v>55</v>
@@ -4630,7 +4645,7 @@
         <v>123</v>
       </c>
       <c r="R18" s="19" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="S18" s="19" t="s">
         <v>68</v>
@@ -4681,7 +4696,7 @@
         <v>68</v>
       </c>
       <c r="AI18" s="19" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AJ18" s="19" t="s">
         <v>55</v>
@@ -4690,7 +4705,7 @@
         <v>123</v>
       </c>
       <c r="AL18" s="19" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AM18" s="19" t="s">
         <v>68</v>
@@ -4702,16 +4717,16 @@
         <v>67</v>
       </c>
       <c r="AP18" s="19" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AQ18" s="19" t="s">
         <v>67</v>
       </c>
       <c r="AR18" s="19" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AS18" s="19" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AT18" s="19" t="s">
         <v>66</v>
@@ -4764,7 +4779,7 @@
         <v>64</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E19" s="19" t="s">
         <v>58</v>
@@ -4779,7 +4794,7 @@
         <v>65</v>
       </c>
       <c r="I19" s="19" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J19" s="19" t="s">
         <v>17</v>
@@ -4797,7 +4812,7 @@
         <v>68</v>
       </c>
       <c r="O19" s="19" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="P19" s="19" t="s">
         <v>55</v>
@@ -4806,7 +4821,7 @@
         <v>123</v>
       </c>
       <c r="R19" s="19" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="S19" s="19" t="s">
         <v>68</v>
@@ -4839,7 +4854,7 @@
         <v>65</v>
       </c>
       <c r="AC19" s="19" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="AD19" s="19" t="s">
         <v>17</v>
@@ -4857,7 +4872,7 @@
         <v>68</v>
       </c>
       <c r="AI19" s="19" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AJ19" s="19" t="s">
         <v>55</v>
@@ -4866,7 +4881,7 @@
         <v>123</v>
       </c>
       <c r="AL19" s="19" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AM19" s="19" t="s">
         <v>68</v>
@@ -4878,16 +4893,16 @@
         <v>67</v>
       </c>
       <c r="AP19" s="19" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AQ19" s="19" t="s">
         <v>67</v>
       </c>
       <c r="AR19" s="19" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AS19" s="19" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AT19" s="19" t="s">
         <v>66</v>
@@ -4940,7 +4955,7 @@
         <v>66</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E20" s="19" t="s">
         <v>60</v>
@@ -4973,7 +4988,7 @@
         <v>68</v>
       </c>
       <c r="O20" s="19" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="P20" s="19" t="s">
         <v>55</v>
@@ -4982,7 +4997,7 @@
         <v>123</v>
       </c>
       <c r="R20" s="19" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="S20" s="19" t="s">
         <v>68</v>
@@ -5033,7 +5048,7 @@
         <v>68</v>
       </c>
       <c r="AI20" s="19" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AJ20" s="19" t="s">
         <v>55</v>
@@ -5042,7 +5057,7 @@
         <v>123</v>
       </c>
       <c r="AL20" s="19" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="AM20" s="19" t="s">
         <v>68</v>
@@ -5054,16 +5069,16 @@
         <v>67</v>
       </c>
       <c r="AP20" s="19" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AQ20" s="19" t="s">
         <v>67</v>
       </c>
       <c r="AR20" s="19" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AS20" s="19" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AT20" s="19" t="s">
         <v>67</v>
@@ -5116,7 +5131,7 @@
         <v>66</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E21" s="19" t="s">
         <v>60</v>
@@ -5149,7 +5164,7 @@
         <v>68</v>
       </c>
       <c r="O21" s="19" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="P21" s="19" t="s">
         <v>55</v>
@@ -5158,7 +5173,7 @@
         <v>123</v>
       </c>
       <c r="R21" s="19" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="S21" s="19" t="s">
         <v>68</v>
@@ -5209,7 +5224,7 @@
         <v>68</v>
       </c>
       <c r="AI21" s="19" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AJ21" s="19" t="s">
         <v>55</v>
@@ -5218,7 +5233,7 @@
         <v>123</v>
       </c>
       <c r="AL21" s="19" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AM21" s="19" t="s">
         <v>68</v>
@@ -5230,16 +5245,16 @@
         <v>67</v>
       </c>
       <c r="AP21" s="19" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AQ21" s="19" t="s">
         <v>67</v>
       </c>
       <c r="AR21" s="19" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AS21" s="19" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AT21" s="19" t="s">
         <v>67</v>
@@ -5288,12 +5303,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AE15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
+      <selection pane="bottomLeft" activeCell="Z2" sqref="Z2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5314,10 +5329,12 @@
     <col min="18" max="23" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="18.42578125" style="22" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="29" max="31" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="19.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="19.42578125" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
@@ -5396,7 +5413,7 @@
       <c r="Y1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="21" t="s">
         <v>147</v>
       </c>
       <c r="AA1" s="1" t="s">
@@ -5406,13 +5423,13 @@
         <v>149</v>
       </c>
       <c r="AC1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="AE1" s="20" t="s">
         <v>208</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
@@ -5426,73 +5443,73 @@
         <v>166</v>
       </c>
       <c r="D2" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="E2" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="E2" s="17" t="s">
-        <v>171</v>
-      </c>
       <c r="F2" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M2" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="R2" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="U2" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="U2" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>171</v>
-      </c>
       <c r="X2" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Y2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Z2" s="1" t="s">
-        <v>177</v>
+      <c r="Z2" s="21" t="s">
+        <v>216</v>
       </c>
       <c r="AA2" s="1" t="s">
         <v>150</v>
@@ -5504,10 +5521,10 @@
         <v>13</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
+      </c>
+      <c r="AE2" s="20" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
@@ -5586,7 +5603,7 @@
       <c r="Y3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="Z3" s="1" t="s">
+      <c r="Z3" s="21" t="s">
         <v>0</v>
       </c>
       <c r="AA3" s="1" t="s">
@@ -5601,7 +5618,7 @@
       <c r="AD3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AE3" s="1" t="s">
+      <c r="AE3" s="20" t="s">
         <v>0</v>
       </c>
     </row>
@@ -5616,7 +5633,7 @@
         <v>152</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>66</v>
@@ -5673,25 +5690,25 @@
         <v>154</v>
       </c>
       <c r="X4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="Y4" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="Z4" s="10" t="s">
-        <v>169</v>
+      <c r="Z4" s="22">
+        <v>0</v>
       </c>
       <c r="AA4" t="s">
         <v>154</v>
       </c>
       <c r="AC4" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AD4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="AE4" s="4" t="s">
-        <v>212</v>
+      <c r="AE4" s="8" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
@@ -5705,7 +5722,7 @@
         <v>152</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>66</v>
@@ -5767,20 +5784,20 @@
       <c r="Y5" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="Z5" s="10" t="s">
-        <v>169</v>
+      <c r="Z5" s="22">
+        <v>0</v>
       </c>
       <c r="AA5" t="s">
         <v>154</v>
       </c>
       <c r="AC5" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AD5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="AE5" s="4" t="s">
-        <v>212</v>
+      <c r="AE5" s="8" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
@@ -5794,7 +5811,7 @@
         <v>152</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>64</v>
@@ -5851,25 +5868,25 @@
         <v>154</v>
       </c>
       <c r="X6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="Y6" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="Z6" s="10" t="s">
-        <v>169</v>
+      <c r="Z6" s="22">
+        <v>0</v>
       </c>
       <c r="AA6" t="s">
         <v>154</v>
       </c>
       <c r="AC6" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AD6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="AE6" s="4" t="s">
-        <v>212</v>
+      <c r="AE6" s="8" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
@@ -5883,7 +5900,7 @@
         <v>152</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>64</v>
@@ -5945,20 +5962,20 @@
       <c r="Y7" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="Z7" s="10" t="s">
-        <v>169</v>
+      <c r="Z7" s="22">
+        <v>0</v>
       </c>
       <c r="AA7" t="s">
         <v>154</v>
       </c>
       <c r="AC7" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AD7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="AE7" s="4" t="s">
-        <v>212</v>
+      <c r="AE7" s="8" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
@@ -5972,7 +5989,7 @@
         <v>152</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>64</v>
@@ -6029,25 +6046,25 @@
         <v>154</v>
       </c>
       <c r="X8" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="Y8" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="Z8" s="10" t="s">
-        <v>169</v>
+      <c r="Z8" s="22">
+        <v>0</v>
       </c>
       <c r="AA8" t="s">
         <v>154</v>
       </c>
       <c r="AC8" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AD8" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="AE8" s="4" t="s">
-        <v>212</v>
+      <c r="AE8" s="8" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
@@ -6061,7 +6078,7 @@
         <v>152</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>66</v>
@@ -6123,20 +6140,20 @@
       <c r="Y9" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="Z9" s="10" t="s">
-        <v>169</v>
+      <c r="Z9" s="22">
+        <v>0</v>
       </c>
       <c r="AA9" t="s">
         <v>154</v>
       </c>
       <c r="AC9" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AD9" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="AE9" s="4" t="s">
-        <v>212</v>
+      <c r="AE9" s="8" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
@@ -6150,7 +6167,7 @@
         <v>152</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>64</v>
@@ -6207,25 +6224,25 @@
         <v>154</v>
       </c>
       <c r="X10" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="Y10" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="Z10" s="10" t="s">
-        <v>169</v>
+      <c r="Z10" s="22">
+        <v>0</v>
       </c>
       <c r="AA10" t="s">
         <v>154</v>
       </c>
       <c r="AC10" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AD10" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="AE10" s="4" t="s">
-        <v>212</v>
+      <c r="AE10" s="8" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
@@ -6239,7 +6256,7 @@
         <v>152</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>64</v>
@@ -6296,25 +6313,25 @@
         <v>154</v>
       </c>
       <c r="X11" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="Y11" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="Z11" s="10" t="s">
-        <v>169</v>
+      <c r="Z11" s="22">
+        <v>0</v>
       </c>
       <c r="AA11" t="s">
         <v>154</v>
       </c>
       <c r="AC11" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AD11" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="AE11" s="4" t="s">
-        <v>212</v>
+      <c r="AE11" s="8" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
@@ -6328,7 +6345,7 @@
         <v>152</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>64</v>
@@ -6385,25 +6402,25 @@
         <v>154</v>
       </c>
       <c r="X12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="Y12" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="Z12" s="10" t="s">
-        <v>169</v>
+      <c r="Z12" s="22">
+        <v>0</v>
       </c>
       <c r="AA12" t="s">
         <v>154</v>
       </c>
       <c r="AC12" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AD12" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="AE12" s="4" t="s">
-        <v>212</v>
+      <c r="AE12" s="8" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
@@ -6417,7 +6434,7 @@
         <v>152</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>64</v>
@@ -6474,25 +6491,25 @@
         <v>154</v>
       </c>
       <c r="X13" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="Y13" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="Z13" s="10" t="s">
-        <v>169</v>
+      <c r="Z13" s="22">
+        <v>0</v>
       </c>
       <c r="AA13" t="s">
         <v>154</v>
       </c>
       <c r="AC13" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AD13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="AE13" s="4" t="s">
-        <v>212</v>
+      <c r="AE13" s="8" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
@@ -6506,7 +6523,7 @@
         <v>152</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>66</v>
@@ -6568,20 +6585,20 @@
       <c r="Y14" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="Z14" s="10" t="s">
-        <v>169</v>
+      <c r="Z14" s="22">
+        <v>0</v>
       </c>
       <c r="AA14" t="s">
         <v>154</v>
       </c>
       <c r="AC14" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AD14" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="AE14" s="4" t="s">
-        <v>212</v>
+      <c r="AE14" s="8" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
@@ -6595,7 +6612,7 @@
         <v>152</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>66</v>
@@ -6652,25 +6669,25 @@
         <v>154</v>
       </c>
       <c r="X15" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="Y15" t="s">
         <v>154</v>
       </c>
-      <c r="Z15">
+      <c r="Z15" s="22">
         <v>0</v>
       </c>
       <c r="AA15" t="s">
         <v>154</v>
       </c>
-      <c r="AC15" t="s">
-        <v>213</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE15" t="s">
-        <v>212</v>
+      <c r="AC15" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="8" t="s">
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -6680,7 +6697,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6767,10 +6784,10 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4:I5"/>
     </sheetView>
@@ -6937,7 +6954,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
